--- a/medicine/Enfance/Louis_Laforce/Louis_Laforce.xlsx
+++ b/medicine/Enfance/Louis_Laforce/Louis_Laforce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis Laforce, né le 19 août 1975 à Victoriaville[1] (Québec), est un écrivain québécois spécialisé dans les récits de science-fiction de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis Laforce, né le 19 août 1975 à Victoriaville (Québec), est un écrivain québécois spécialisé dans les récits de science-fiction de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études collégiales en Lettres modernes et en Techniques juridiques, ainsi que des études universitaires à l'Université de Montréal en Communications et obtient un baccalauréat en Histoire. Technicien en droit le jour, il devient écrivain le soir.
-Il est connu au Québec pour Arthur et Zeïa, une série romanesque de science-fiction destinée aux adolescents, dans laquelle des jeunes voyagent dans le temps à la poursuite de pirates qui veulent piller les trésors du passé. Trois des quatre romans ont été sélectionnés au palmarès annuel de l'organisme québécois Communication-Jeunesse[2].
-Il a aussi écrit la série Mam'zelle Lili-Rose[3],[4], mettant en vedette une adolescente de 14 ans qui vit en 1998, une époque pas si lointaine, mais où personne ne se textait ou se prenait en selfie. Louis Laforce a lu un extrait du premier tome pour le Projet confinement[5] de la blogueuse littéraire Sophie lit. Cette série québécoise est aussi distribuée dans les librairies françaises et belges par Kennes.
-Il est aussi l'auteur de la série pour enfants Alex et Marion gagnent le million[6], dans laquelle une famille déménage à la campagne, où elle rachète un vieux manoir abandonné et le converti en restaurant. Cette série est destinée aux jeunes lecteurs de 6-8 ans. Les premiers tomes ont fait la sélection semestrielle de l'organisme québécois Communication-Jeunesse.
-Enfin, il est l'auteur du roman Les zombies de la Conquête, dans lequel des soldats décédés lors de la bataille des Plaines d'Abraham[7] reprennent vie afin de poursuivre le combat perdu en 1759. Ce roman a fait l'objet d'une chronique de Sophie lit[8] et d'une critique du journal Le Devoir[9].
-Autour de 2010, Louis Laforce a également écrit sur le Web des Chroniques d'un papa imparfait[10], une série de billets tantôt humoristiques, tantôt vindicatifs.
-En août 2019, il a été nommé auteur chouchou sur le site Maman pour la vie[11].
-En 2022, il a été parrain de la 8e édition du Concours d'écriture jeunesse Plume[12].
+Il est connu au Québec pour Arthur et Zeïa, une série romanesque de science-fiction destinée aux adolescents, dans laquelle des jeunes voyagent dans le temps à la poursuite de pirates qui veulent piller les trésors du passé. Trois des quatre romans ont été sélectionnés au palmarès annuel de l'organisme québécois Communication-Jeunesse.
+Il a aussi écrit la série Mam'zelle Lili-Rose mettant en vedette une adolescente de 14 ans qui vit en 1998, une époque pas si lointaine, mais où personne ne se textait ou se prenait en selfie. Louis Laforce a lu un extrait du premier tome pour le Projet confinement de la blogueuse littéraire Sophie lit. Cette série québécoise est aussi distribuée dans les librairies françaises et belges par Kennes.
+Il est aussi l'auteur de la série pour enfants Alex et Marion gagnent le million, dans laquelle une famille déménage à la campagne, où elle rachète un vieux manoir abandonné et le converti en restaurant. Cette série est destinée aux jeunes lecteurs de 6-8 ans. Les premiers tomes ont fait la sélection semestrielle de l'organisme québécois Communication-Jeunesse.
+Enfin, il est l'auteur du roman Les zombies de la Conquête, dans lequel des soldats décédés lors de la bataille des Plaines d'Abraham reprennent vie afin de poursuivre le combat perdu en 1759. Ce roman a fait l'objet d'une chronique de Sophie lit et d'une critique du journal Le Devoir.
+Autour de 2010, Louis Laforce a également écrit sur le Web des Chroniques d'un papa imparfait, une série de billets tantôt humoristiques, tantôt vindicatifs.
+En août 2019, il a été nommé auteur chouchou sur le site Maman pour la vie.
+En 2022, il a été parrain de la 8e édition du Concours d'écriture jeunesse Plume.
 </t>
         </is>
       </c>
@@ -551,24 +565,143 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Mam'zelle Lili-Rose
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Série Mam'zelle Lili-Rose
 Du soleil plein les lunettes, Éditions Andara, 2020, 384 p.  (ISBN 9782897462840)
 Paris, me voici !, Éditions Andara, 2020, 384 p.  (ISBN 9782897463168)
 À bientôt, Toronto, Éditions Andara - 2021, 386 p.  (ISBN 9782897463991)
-Comme au cinéma!, Éditions Andara - 2022, 375 p.  (ISBN 9782897465292)
-Série Alex et Marion gagnent le million
-La recette secrète, Éditions Dominique et compagnie, coll. « Grand roman Lime » no 68, 2019, 96 p.  (ISBN 9782897856458)
+Comme au cinéma!, Éditions Andara - 2022, 375 p.  (ISBN 9782897465292)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louis_Laforce</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Laforce</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Alex et Marion gagnent le million</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La recette secrète, Éditions Dominique et compagnie, coll. « Grand roman Lime » no 68, 2019, 96 p.  (ISBN 9782897856458)
 La poutine bleue, Éditions Dominique et compagnie, coll. «Grand roman Lime» n. 69, 2020, 96 p.  (ISBN 9782897857912)
 Le trésor caché, Éditions Dominique et compagnie, coll. «Grand roman Lime» n. 74, 2021, 96 p.  (ISBN 9782898202216)
-Le défi sucré, Éditions Dominique et compagnie, coll. «Grand roman Lime» n. 77, 2022, 94 p.  (ISBN 9782898204647)
-Série Arthur et Zeïa
-L'Éclair jaune, Éditions Pierre Tisseyre, coll. « Chacal » no 32, 2005, 265 p.  (ISBN 2890519422)
+Le défi sucré, Éditions Dominique et compagnie, coll. «Grand roman Lime» n. 77, 2022, 94 p.  (ISBN 9782898204647)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Laforce</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Laforce</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Arthur et Zeïa</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Éclair jaune, Éditions Pierre Tisseyre, coll. « Chacal » no 32, 2005, 265 p.  (ISBN 2890519422)
 Le Trésor des Templiers, Éditions Pierre Tisseyre, coll. « Chacal » no 43, 2006, 311 p.  (ISBN 2896330208)
 Les Zuniques, Éditions Pierre Tisseyre, coll. « Chacal » no 47, 2008, 379 p.  (ISBN 978-2896330690)
-Le Secret de Pachacamac, Éditions Pierre Tisseyre, coll. « Chacal » no 67, 2016, 328 p.  (ISBN 978-2896333516)
-Autres romans jeunesse
-Les zombies de la Conquête, Éditions Pierre Tisseyre, coll. « Conquête » no 157,  (ISBN 9782896334032).
+Le Secret de Pachacamac, Éditions Pierre Tisseyre, coll. « Chacal » no 67, 2016, 328 p.  (ISBN 978-2896333516)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Laforce</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Laforce</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les zombies de la Conquête, Éditions Pierre Tisseyre, coll. « Conquête » no 157,  (ISBN 9782896334032).
 Féroce aréna, Éditions Héritage jeunesse, coll. Frissons, 2021  (ISBN 9782898122552).
 Épreuve radicale, Éditions Héritage jeunesse, coll. Sphinx, 2022  (ISBN 9782898123535).
 Complot cruel, Éditions Héritage jeunesse, coll. Sphinx, 2022  (ISBN 9782898124396).
